--- a/Soothsayer_for_Project_Contingency_1.0.2.xlsx
+++ b/Soothsayer_for_Project_Contingency_1.0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\soothsayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84714537-EFE4-4287-8E27-223008F96300}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD042F2-9AC7-4E09-B208-1B6A627BC31D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2074,7 +2074,7 @@
     <t>or (at your option) any later version.  Soothsayer™ is a non-federally-registered trademark.  If you modify</t>
   </si>
   <si>
-    <t>this spreadsheet in any material way, please remove this trademarked names from the modified spreadsheet.</t>
+    <t>this spreadsheet in any material way, please remove this trademarked name from the modified spreadsheet.</t>
   </si>
 </sst>
 </file>
@@ -2714,18 +2714,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2746,6 +2734,18 @@
     </xf>
     <xf numFmtId="1" fontId="14" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3123,17 +3123,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="59" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="28"/>
@@ -3148,22 +3148,22 @@
       <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="58" t="s">
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3190,13 +3190,13 @@
         <f>SUM(G4:G203)</f>
         <v>14.465846859834574</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
       <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9619,15 +9619,15 @@
       <c r="N208" s="28"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A209" s="54" t="s">
+      <c r="A209" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B209" s="54"/>
-      <c r="C209" s="54"/>
-      <c r="D209" s="54"/>
-      <c r="E209" s="54"/>
-      <c r="F209" s="54"/>
-      <c r="G209" s="54"/>
+      <c r="B209" s="61"/>
+      <c r="C209" s="61"/>
+      <c r="D209" s="61"/>
+      <c r="E209" s="61"/>
+      <c r="F209" s="61"/>
+      <c r="G209" s="61"/>
       <c r="H209" s="28"/>
       <c r="I209" s="28"/>
       <c r="J209" s="28"/>
@@ -9637,14 +9637,14 @@
       <c r="N209" s="28"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A210" s="54" t="s">
+      <c r="A210" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B210" s="54"/>
-      <c r="C210" s="54"/>
-      <c r="D210" s="54"/>
-      <c r="E210" s="54"/>
-      <c r="F210" s="54"/>
+      <c r="B210" s="61"/>
+      <c r="C210" s="61"/>
+      <c r="D210" s="61"/>
+      <c r="E210" s="61"/>
+      <c r="F210" s="61"/>
       <c r="G210" s="3"/>
       <c r="H210" s="28"/>
       <c r="I210" s="28"/>
@@ -9655,12 +9655,12 @@
       <c r="N210" s="28"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A211" s="54" t="s">
+      <c r="A211" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B211" s="54"/>
-      <c r="C211" s="54"/>
-      <c r="D211" s="54"/>
+      <c r="B211" s="61"/>
+      <c r="C211" s="61"/>
+      <c r="D211" s="61"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -9673,12 +9673,12 @@
       <c r="N211" s="28"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212" s="54" t="s">
+      <c r="A212" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B212" s="54"/>
-      <c r="C212" s="54"/>
-      <c r="D212" s="54"/>
+      <c r="B212" s="61"/>
+      <c r="C212" s="61"/>
+      <c r="D212" s="61"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -9691,15 +9691,15 @@
       <c r="N212" s="28"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A213" s="54" t="s">
+      <c r="A213" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B213" s="54"/>
-      <c r="C213" s="54"/>
-      <c r="D213" s="54"/>
-      <c r="E213" s="54"/>
-      <c r="F213" s="54"/>
-      <c r="G213" s="54"/>
+      <c r="B213" s="61"/>
+      <c r="C213" s="61"/>
+      <c r="D213" s="61"/>
+      <c r="E213" s="61"/>
+      <c r="F213" s="61"/>
+      <c r="G213" s="61"/>
       <c r="H213" s="28"/>
       <c r="I213" s="28"/>
       <c r="J213" s="28"/>
@@ -9869,14 +9869,14 @@
       <c r="N222" s="28"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A223" s="55" t="s">
+      <c r="A223" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B223" s="55"/>
-      <c r="C223" s="55"/>
-      <c r="D223" s="55"/>
-      <c r="E223" s="55"/>
-      <c r="F223" s="55"/>
+      <c r="B223" s="62"/>
+      <c r="C223" s="62"/>
+      <c r="D223" s="62"/>
+      <c r="E223" s="62"/>
+      <c r="F223" s="62"/>
       <c r="G223" s="3"/>
       <c r="H223" s="28"/>
       <c r="I223" s="28"/>
@@ -9907,16 +9907,16 @@
     <sortCondition ref="A4:A18"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A223:F223"/>
+    <mergeCell ref="A213:G213"/>
+    <mergeCell ref="A1:D2"/>
     <mergeCell ref="H2:N3"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A209:G209"/>
     <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A223:F223"/>
-    <mergeCell ref="A213:G213"/>
-    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="At Risk input warning" error="The percentage you entered should be between 20% and 50% for most project estimation purposes.  Change the Excel Data Validation for this cell if you need to use a value outside this range." promptTitle="At Risk Error Distribution" prompt="Enter an At Risk error distribution approximation between 20% and 50%, where 33% is a normal, decreasing error, and 50% is a uniform error." sqref="K15" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Soothsayer_for_Project_Contingency_1.0.2.xlsx
+++ b/Soothsayer_for_Project_Contingency_1.0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\soothsayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD042F2-9AC7-4E09-B208-1B6A627BC31D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C161F1-C7FC-4B5B-B82E-7A4553AFC7DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2714,6 +2714,18 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2734,18 +2746,6 @@
     </xf>
     <xf numFmtId="1" fontId="14" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3123,17 +3123,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="63" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="28"/>
@@ -3148,22 +3148,22 @@
       <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="54" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3184,19 +3184,19 @@
       </c>
       <c r="F3" s="43">
         <f>SUM(F4:F203)</f>
-        <v>43.835899575256278</v>
+        <v>73.724012922021927</v>
       </c>
       <c r="G3" s="44">
         <f>SUM(G4:G203)</f>
-        <v>14.465846859834574</v>
-      </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
+        <v>24.328924264267236</v>
+      </c>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62"/>
       <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3204,25 +3204,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="47">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C4" s="47">
-        <v>22.014918220431248</v>
+        <v>110.07459110215623</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D18" si="0">IF(ISBLANK(C4),0,B4-C4)</f>
-        <v>3.9850817795687519</v>
+        <f>IF(ISBLANK(C4),0,B4-C4)</f>
+        <v>19.925408897843766</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F35" si="1">IF($K$13&lt;E4,"",D4)</f>
-        <v>3.9850817795687519</v>
+        <f t="shared" ref="F4:F35" si="0">IF($K$13&lt;E4,"",D4)</f>
+        <v>19.925408897843766</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" ref="G4:G35" si="2">IF(ISBLANK(C4),"",IF($K$13&lt;E4,"",D4*$K$15))</f>
-        <v>1.3150769872576882</v>
+        <f t="shared" ref="G4:G35" si="1">IF(ISBLANK(C4),"",IF($K$13&lt;E4,"",D4*$K$15))</f>
+        <v>6.5753849362884429</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -3245,26 +3245,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="47">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C5" s="47">
-        <v>22.014918220431248</v>
+        <v>88.059672881724993</v>
       </c>
       <c r="D5" s="8">
+        <f>IF(ISBLANK(C5),0,B5-C5)</f>
+        <v>15.940327118275007</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" ref="E5:E36" si="2">E4+1</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>3.9850817795687519</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" ref="E5:E36" si="3">E4+1</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="10">
+        <v>15.940327118275007</v>
+      </c>
+      <c r="G5" s="10">
         <f t="shared" si="1"/>
-        <v>3.9850817795687519</v>
-      </c>
-      <c r="G5" s="10">
-        <f t="shared" si="2"/>
-        <v>1.3150769872576882</v>
+        <v>5.2603079490307527</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
@@ -3286,26 +3286,26 @@
         <v>3</v>
       </c>
       <c r="B6" s="47">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C6" s="47">
-        <v>33.022377330646869</v>
+        <v>66.044754661293737</v>
       </c>
       <c r="D6" s="8">
+        <f>IF(ISBLANK(C6),0,B6-C6)</f>
+        <v>11.955245338706263</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>5.9776226693531314</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F6" s="10">
+        <v>11.955245338706263</v>
+      </c>
+      <c r="G6" s="10">
         <f t="shared" si="1"/>
-        <v>5.9776226693531314</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" si="2"/>
-        <v>1.9726154808865335</v>
+        <v>3.945230961773067</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
@@ -3328,26 +3328,26 @@
         <v>4</v>
       </c>
       <c r="B7" s="47">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C7" s="47">
-        <v>44.029836440862496</v>
+        <v>55.037295551078117</v>
       </c>
       <c r="D7" s="8">
+        <f>IF(ISBLANK(C7),0,B7-C7)</f>
+        <v>9.9627044489218832</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>7.9701635591375037</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F7" s="10">
+        <v>9.9627044489218832</v>
+      </c>
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>7.9701635591375037</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" si="2"/>
-        <v>2.6301539745153764</v>
+        <v>3.2876924681442214</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
@@ -3365,26 +3365,26 @@
         <v>5</v>
       </c>
       <c r="B8" s="47">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C8" s="47">
-        <v>33.022377330646869</v>
+        <v>44.029836440862496</v>
       </c>
       <c r="D8" s="8">
+        <f>IF(ISBLANK(C8),0,B8-C8)</f>
+        <v>7.9701635591375037</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>5.9776226693531314</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F8" s="10">
+        <v>7.9701635591375037</v>
+      </c>
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
-        <v>5.9776226693531314</v>
-      </c>
-      <c r="G8" s="10">
-        <f t="shared" si="2"/>
-        <v>1.9726154808865335</v>
+        <v>2.6301539745153764</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
@@ -3406,26 +3406,26 @@
         <v>6</v>
       </c>
       <c r="B9" s="47">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C9" s="47">
-        <v>88.059672881724993</v>
+        <v>44.029836440862496</v>
       </c>
       <c r="D9" s="8">
+        <f>IF(ISBLANK(C9),0,B9-C9)</f>
+        <v>7.9701635591375037</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>15.940327118275007</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F9" s="10">
+        <v>7.9701635591375037</v>
+      </c>
+      <c r="G9" s="10">
         <f t="shared" si="1"/>
-        <v>15.940327118275007</v>
-      </c>
-      <c r="G9" s="10">
-        <f t="shared" si="2"/>
-        <v>5.2603079490307527</v>
+        <v>2.6301539745153764</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
@@ -3448,25 +3448,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="47">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="C10" s="47">
-        <v>110.07459110215623</v>
+        <v>44.029836440862496</v>
       </c>
       <c r="D10" s="8">
+        <f>IF(ISBLANK(C10),0,B10-C10)</f>
+        <v>7.9701635591375037</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>19.925408897843766</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="F10" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G10" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H10" s="16"/>
@@ -3485,25 +3485,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="47">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C11" s="47">
-        <v>66.044754661293737</v>
+        <v>33.022377330646869</v>
       </c>
       <c r="D11" s="8">
+        <f>IF(ISBLANK(C11),0,B11-C11)</f>
+        <v>5.9776226693531314</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>11.955245338706263</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F11" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G11" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G11" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H11" s="16"/>
@@ -3520,25 +3520,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="47">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C12" s="47">
-        <v>55.037295551078117</v>
+        <v>33.022377330646869</v>
       </c>
       <c r="D12" s="8">
+        <f>IF(ISBLANK(C12),0,B12-C12)</f>
+        <v>5.9776226693531314</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>9.9627044489218832</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="F12" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G12" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G12" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H12" s="16"/>
@@ -3562,25 +3562,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="47">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C13" s="47">
-        <v>44.029836440862496</v>
+        <v>33.022377330646869</v>
       </c>
       <c r="D13" s="8">
+        <f>IF(ISBLANK(C13),0,B13-C13)</f>
+        <v>5.9776226693531314</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>7.9701635591375037</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="F13" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G13" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G13" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H13" s="16"/>
@@ -3608,19 +3608,19 @@
         <v>22.014918220431248</v>
       </c>
       <c r="D14" s="8">
+        <f>IF(ISBLANK(C14),0,B14-C14)</f>
+        <v>3.9850817795687519</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>3.9850817795687519</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="F14" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G14" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G14" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H14" s="23"/>
@@ -3639,25 +3639,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="47">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C15" s="47">
-        <v>11.007459110215624</v>
+        <v>22.014918220431248</v>
       </c>
       <c r="D15" s="8">
+        <f>IF(ISBLANK(C15),0,B15-C15)</f>
+        <v>3.9850817795687519</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>1.9925408897843759</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="F15" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G15" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G15" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H15" s="11"/>
@@ -3686,19 +3686,19 @@
         <v>22.014918220431248</v>
       </c>
       <c r="D16" s="8">
+        <f>IF(ISBLANK(C16),0,B16-C16)</f>
+        <v>3.9850817795687519</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>3.9850817795687519</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="F16" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G16" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G16" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H16" s="16"/>
@@ -3717,25 +3717,25 @@
         <v>14</v>
       </c>
       <c r="B17" s="47">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C17" s="47">
-        <v>44.029836440862496</v>
+        <v>22.014918220431248</v>
       </c>
       <c r="D17" s="8">
+        <f>IF(ISBLANK(C17),0,B17-C17)</f>
+        <v>3.9850817795687519</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>7.9701635591375037</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="F17" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G17" s="45" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G17" s="45" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H17" s="16"/>
@@ -3754,25 +3754,25 @@
         <v>15</v>
       </c>
       <c r="B18" s="47">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C18" s="47">
-        <v>33.022377330646869</v>
+        <v>11.007459110215624</v>
       </c>
       <c r="D18" s="8">
+        <f>IF(ISBLANK(C18),0,B18-C18)</f>
+        <v>1.9925408897843759</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>5.9776226693531314</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F18" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G18" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G18" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H18" s="23"/>
@@ -3793,19 +3793,19 @@
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
       <c r="D19" s="8">
-        <f t="shared" ref="D19:D35" si="4">IF(ISBLANK(C19),0,B19-C19)</f>
+        <f t="shared" ref="D19:D35" si="3">IF(ISBLANK(C19),0,B19-C19)</f>
         <v>0</v>
       </c>
       <c r="E19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="F19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G19" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H19" s="28"/>
@@ -3824,19 +3824,19 @@
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
       <c r="D20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="F20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H20" s="28"/>
@@ -3855,19 +3855,19 @@
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="F21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G21" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H21" s="28"/>
@@ -3886,19 +3886,19 @@
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
       <c r="D22" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="F22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G22" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H22" s="28"/>
@@ -3917,19 +3917,19 @@
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
       <c r="D23" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G23" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H23" s="28"/>
@@ -3948,19 +3948,19 @@
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
       <c r="D24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="F24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G24" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H24" s="28"/>
@@ -3979,19 +3979,19 @@
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
       <c r="D25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="F25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G25" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H25" s="28"/>
@@ -4010,19 +4010,19 @@
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
       <c r="D26" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="F26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G26" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H26" s="28"/>
@@ -4041,19 +4041,19 @@
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
       <c r="D27" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="F27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H27" s="28"/>
@@ -4072,19 +4072,19 @@
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="F28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G28" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H28" s="28"/>
@@ -4103,19 +4103,19 @@
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
       <c r="D29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="F29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G29" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H29" s="28"/>
@@ -4134,19 +4134,19 @@
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="F30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G30" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H30" s="28"/>
@@ -4165,19 +4165,19 @@
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="F31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G31" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G31" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H31" s="28"/>
@@ -4196,19 +4196,19 @@
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="D32" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="F32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G32" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H32" s="28"/>
@@ -4227,19 +4227,19 @@
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="D33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="F33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G33" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G33" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H33" s="28"/>
@@ -4258,19 +4258,19 @@
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="D34" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="F34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G34" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G34" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H34" s="28"/>
@@ -4289,19 +4289,19 @@
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="D35" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="F35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="10" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H35" s="28"/>
@@ -4320,19 +4320,19 @@
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
       <c r="D36" s="8">
-        <f t="shared" ref="D36:D67" si="5">IF(ISBLANK(C36),0,B36-C36)</f>
+        <f t="shared" ref="D36:D67" si="4">IF(ISBLANK(C36),0,B36-C36)</f>
         <v>0</v>
       </c>
       <c r="E36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="F36" s="10" t="str">
-        <f t="shared" ref="F36:F67" si="6">IF($K$13&lt;E36,"",D36)</f>
+        <f t="shared" ref="F36:F67" si="5">IF($K$13&lt;E36,"",D36)</f>
         <v/>
       </c>
       <c r="G36" s="10" t="str">
-        <f t="shared" ref="G36:G67" si="7">IF(ISBLANK(C36),"",IF($K$13&lt;E36,"",D36*$K$15))</f>
+        <f t="shared" ref="G36:G67" si="6">IF(ISBLANK(C36),"",IF($K$13&lt;E36,"",D36*$K$15))</f>
         <v/>
       </c>
       <c r="H36" s="28"/>
@@ -4351,19 +4351,19 @@
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
       <c r="D37" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" ref="E37:E68" si="7">E36+1</f>
+        <v>34</v>
+      </c>
+      <c r="F37" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="9">
-        <f t="shared" ref="E37:E68" si="8">E36+1</f>
-        <v>34</v>
-      </c>
-      <c r="F37" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G37" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G37" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H37" s="28"/>
@@ -4382,19 +4382,19 @@
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
       <c r="D38" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="F38" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="9">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="F38" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G38" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G38" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H38" s="28"/>
@@ -4413,19 +4413,19 @@
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
       <c r="D39" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="F39" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="F39" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G39" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G39" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H39" s="28"/>
@@ -4444,19 +4444,19 @@
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
       <c r="D40" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="F40" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="9">
-        <f t="shared" si="8"/>
-        <v>37</v>
-      </c>
-      <c r="F40" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G40" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G40" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H40" s="28"/>
@@ -4475,19 +4475,19 @@
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
       <c r="D41" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="F41" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="9">
-        <f t="shared" si="8"/>
-        <v>38</v>
-      </c>
-      <c r="F41" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G41" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G41" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H41" s="28"/>
@@ -4506,19 +4506,19 @@
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
       <c r="D42" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="F42" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="9">
-        <f t="shared" si="8"/>
-        <v>39</v>
-      </c>
-      <c r="F42" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G42" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G42" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H42" s="28"/>
@@ -4537,19 +4537,19 @@
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
       <c r="D43" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="F43" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="9">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="F43" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G43" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G43" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H43" s="28"/>
@@ -4568,19 +4568,19 @@
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
       <c r="D44" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="F44" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9">
-        <f t="shared" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="F44" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G44" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G44" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H44" s="28"/>
@@ -4599,19 +4599,19 @@
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
       <c r="D45" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="F45" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="9">
-        <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-      <c r="F45" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G45" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G45" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H45" s="28"/>
@@ -4630,19 +4630,19 @@
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
       <c r="D46" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="F46" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="9">
-        <f t="shared" si="8"/>
-        <v>43</v>
-      </c>
-      <c r="F46" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G46" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G46" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H46" s="28"/>
@@ -4661,19 +4661,19 @@
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
       <c r="D47" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="F47" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="9">
-        <f t="shared" si="8"/>
-        <v>44</v>
-      </c>
-      <c r="F47" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G47" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G47" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H47" s="28"/>
@@ -4692,19 +4692,19 @@
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
       <c r="D48" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="F48" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="9">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F48" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G48" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G48" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H48" s="28"/>
@@ -4723,19 +4723,19 @@
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
       <c r="D49" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="F49" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9">
-        <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="F49" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G49" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G49" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H49" s="28"/>
@@ -4754,19 +4754,19 @@
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
       <c r="D50" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="F50" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="9">
-        <f t="shared" si="8"/>
-        <v>47</v>
-      </c>
-      <c r="F50" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G50" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G50" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H50" s="28"/>
@@ -4785,19 +4785,19 @@
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
       <c r="D51" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="F51" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="9">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="F51" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G51" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G51" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H51" s="28"/>
@@ -4816,19 +4816,19 @@
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
       <c r="D52" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="9">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="F52" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="9">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="F52" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G52" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G52" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H52" s="28"/>
@@ -4847,19 +4847,19 @@
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
       <c r="D53" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="9">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="F53" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="9">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="F53" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G53" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G53" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H53" s="28"/>
@@ -4878,19 +4878,19 @@
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
       <c r="D54" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="F54" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="9">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-      <c r="F54" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G54" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G54" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H54" s="28"/>
@@ -4909,19 +4909,19 @@
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
       <c r="D55" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="9">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="F55" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="9">
-        <f t="shared" si="8"/>
-        <v>52</v>
-      </c>
-      <c r="F55" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G55" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G55" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H55" s="28"/>
@@ -4940,19 +4940,19 @@
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
       <c r="D56" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="9">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="F56" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="9">
-        <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-      <c r="F56" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G56" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G56" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H56" s="28"/>
@@ -4971,19 +4971,19 @@
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
       <c r="D57" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="9">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="F57" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="9">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="F57" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G57" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G57" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H57" s="28"/>
@@ -5002,19 +5002,19 @@
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
       <c r="D58" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="9">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="F58" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="9">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="F58" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G58" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G58" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H58" s="28"/>
@@ -5033,19 +5033,19 @@
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
       <c r="D59" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="9">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="F59" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="9">
-        <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="F59" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G59" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G59" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H59" s="28"/>
@@ -5064,19 +5064,19 @@
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
       <c r="D60" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="9">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="F60" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="9">
-        <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-      <c r="F60" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G60" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G60" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H60" s="28"/>
@@ -5095,19 +5095,19 @@
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
       <c r="D61" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="F61" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="9">
-        <f t="shared" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="F61" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G61" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G61" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H61" s="28"/>
@@ -5126,19 +5126,19 @@
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
       <c r="D62" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="9">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="F62" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="9">
-        <f t="shared" si="8"/>
-        <v>59</v>
-      </c>
-      <c r="F62" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G62" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G62" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H62" s="28"/>
@@ -5157,19 +5157,19 @@
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
       <c r="D63" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="9">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="F63" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="9">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="F63" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G63" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G63" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H63" s="28"/>
@@ -5188,19 +5188,19 @@
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
       <c r="D64" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="9">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="F64" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="9">
-        <f t="shared" si="8"/>
-        <v>61</v>
-      </c>
-      <c r="F64" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G64" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G64" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H64" s="28"/>
@@ -5219,19 +5219,19 @@
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
       <c r="D65" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="9">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="F65" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="9">
-        <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="F65" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G65" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G65" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H65" s="28"/>
@@ -5250,19 +5250,19 @@
       <c r="B66" s="47"/>
       <c r="C66" s="47"/>
       <c r="D66" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="9">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="F66" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="9">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="F66" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G66" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G66" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H66" s="28"/>
@@ -5281,19 +5281,19 @@
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
       <c r="D67" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="9">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="F67" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="9">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="F67" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G67" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G67" s="10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H67" s="28"/>
@@ -5312,19 +5312,19 @@
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
       <c r="D68" s="8">
-        <f t="shared" ref="D68:D99" si="9">IF(ISBLANK(C68),0,B68-C68)</f>
+        <f t="shared" ref="D68:D99" si="8">IF(ISBLANK(C68),0,B68-C68)</f>
         <v>0</v>
       </c>
       <c r="E68" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="F68" s="10" t="str">
-        <f t="shared" ref="F68:F99" si="10">IF($K$13&lt;E68,"",D68)</f>
+        <f t="shared" ref="F68:F99" si="9">IF($K$13&lt;E68,"",D68)</f>
         <v/>
       </c>
       <c r="G68" s="10" t="str">
-        <f t="shared" ref="G68:G99" si="11">IF(ISBLANK(C68),"",IF($K$13&lt;E68,"",D68*$K$15))</f>
+        <f t="shared" ref="G68:G99" si="10">IF(ISBLANK(C68),"",IF($K$13&lt;E68,"",D68*$K$15))</f>
         <v/>
       </c>
       <c r="H68" s="28"/>
@@ -5343,19 +5343,19 @@
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
       <c r="D69" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="9">
+        <f t="shared" ref="E69:E100" si="11">E68+1</f>
+        <v>66</v>
+      </c>
+      <c r="F69" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="9">
-        <f t="shared" ref="E69:E100" si="12">E68+1</f>
-        <v>66</v>
-      </c>
-      <c r="F69" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G69" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G69" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H69" s="28"/>
@@ -5374,19 +5374,19 @@
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
       <c r="D70" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="9">
+        <f t="shared" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="F70" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="9">
-        <f t="shared" si="12"/>
-        <v>67</v>
-      </c>
-      <c r="F70" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G70" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G70" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H70" s="28"/>
@@ -5405,19 +5405,19 @@
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
       <c r="D71" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="9">
+        <f t="shared" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="F71" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="9">
-        <f t="shared" si="12"/>
-        <v>68</v>
-      </c>
-      <c r="F71" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G71" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G71" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H71" s="28"/>
@@ -5436,19 +5436,19 @@
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
       <c r="D72" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="9">
+        <f t="shared" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="F72" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="9">
-        <f t="shared" si="12"/>
-        <v>69</v>
-      </c>
-      <c r="F72" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G72" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G72" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H72" s="28"/>
@@ -5467,19 +5467,19 @@
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
       <c r="D73" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="9">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="F73" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="9">
-        <f t="shared" si="12"/>
-        <v>70</v>
-      </c>
-      <c r="F73" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G73" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G73" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H73" s="28"/>
@@ -5498,19 +5498,19 @@
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
       <c r="D74" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="9">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="F74" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="9">
-        <f t="shared" si="12"/>
-        <v>71</v>
-      </c>
-      <c r="F74" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G74" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G74" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H74" s="28"/>
@@ -5529,19 +5529,19 @@
       <c r="B75" s="47"/>
       <c r="C75" s="47"/>
       <c r="D75" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="9">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="F75" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="9">
-        <f t="shared" si="12"/>
-        <v>72</v>
-      </c>
-      <c r="F75" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G75" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G75" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H75" s="28"/>
@@ -5560,19 +5560,19 @@
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
       <c r="D76" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="9">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="F76" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="9">
-        <f t="shared" si="12"/>
-        <v>73</v>
-      </c>
-      <c r="F76" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G76" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G76" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H76" s="28"/>
@@ -5591,19 +5591,19 @@
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
       <c r="D77" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="9">
+        <f t="shared" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="F77" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="9">
-        <f t="shared" si="12"/>
-        <v>74</v>
-      </c>
-      <c r="F77" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G77" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G77" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H77" s="28"/>
@@ -5622,19 +5622,19 @@
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
       <c r="D78" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="9">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="F78" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="9">
-        <f t="shared" si="12"/>
-        <v>75</v>
-      </c>
-      <c r="F78" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G78" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G78" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H78" s="28"/>
@@ -5653,19 +5653,19 @@
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
       <c r="D79" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="9">
+        <f t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="F79" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="9">
-        <f t="shared" si="12"/>
-        <v>76</v>
-      </c>
-      <c r="F79" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G79" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G79" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H79" s="28"/>
@@ -5684,19 +5684,19 @@
       <c r="B80" s="47"/>
       <c r="C80" s="47"/>
       <c r="D80" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="9">
+        <f t="shared" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="F80" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="9">
-        <f t="shared" si="12"/>
-        <v>77</v>
-      </c>
-      <c r="F80" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G80" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G80" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H80" s="28"/>
@@ -5715,19 +5715,19 @@
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
       <c r="D81" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="9">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="F81" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="9">
-        <f t="shared" si="12"/>
-        <v>78</v>
-      </c>
-      <c r="F81" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G81" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G81" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H81" s="28"/>
@@ -5746,19 +5746,19 @@
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
       <c r="D82" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="9">
+        <f t="shared" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="F82" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="9">
-        <f t="shared" si="12"/>
-        <v>79</v>
-      </c>
-      <c r="F82" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G82" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G82" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H82" s="28"/>
@@ -5777,19 +5777,19 @@
       <c r="B83" s="47"/>
       <c r="C83" s="47"/>
       <c r="D83" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="9">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="F83" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="9">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="F83" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G83" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G83" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H83" s="28"/>
@@ -5808,19 +5808,19 @@
       <c r="B84" s="47"/>
       <c r="C84" s="47"/>
       <c r="D84" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="9">
+        <f t="shared" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="F84" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="9">
-        <f t="shared" si="12"/>
-        <v>81</v>
-      </c>
-      <c r="F84" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G84" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G84" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H84" s="28"/>
@@ -5839,19 +5839,19 @@
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
       <c r="D85" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="9">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="F85" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="9">
-        <f t="shared" si="12"/>
-        <v>82</v>
-      </c>
-      <c r="F85" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G85" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G85" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H85" s="28"/>
@@ -5870,19 +5870,19 @@
       <c r="B86" s="47"/>
       <c r="C86" s="47"/>
       <c r="D86" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="9">
+        <f t="shared" si="11"/>
+        <v>83</v>
+      </c>
+      <c r="F86" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="9">
-        <f t="shared" si="12"/>
-        <v>83</v>
-      </c>
-      <c r="F86" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G86" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G86" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H86" s="28"/>
@@ -5901,19 +5901,19 @@
       <c r="B87" s="47"/>
       <c r="C87" s="47"/>
       <c r="D87" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="9">
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
+      <c r="F87" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="9">
-        <f t="shared" si="12"/>
-        <v>84</v>
-      </c>
-      <c r="F87" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G87" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G87" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H87" s="28"/>
@@ -5932,19 +5932,19 @@
       <c r="B88" s="47"/>
       <c r="C88" s="47"/>
       <c r="D88" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="9">
+        <f t="shared" si="11"/>
+        <v>85</v>
+      </c>
+      <c r="F88" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="9">
-        <f t="shared" si="12"/>
-        <v>85</v>
-      </c>
-      <c r="F88" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G88" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G88" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H88" s="28"/>
@@ -5963,19 +5963,19 @@
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
       <c r="D89" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="9">
+        <f t="shared" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="F89" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="9">
-        <f t="shared" si="12"/>
-        <v>86</v>
-      </c>
-      <c r="F89" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G89" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G89" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H89" s="28"/>
@@ -5994,19 +5994,19 @@
       <c r="B90" s="47"/>
       <c r="C90" s="47"/>
       <c r="D90" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="9">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="F90" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="9">
-        <f t="shared" si="12"/>
-        <v>87</v>
-      </c>
-      <c r="F90" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G90" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G90" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H90" s="28"/>
@@ -6025,19 +6025,19 @@
       <c r="B91" s="47"/>
       <c r="C91" s="47"/>
       <c r="D91" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="9">
+        <f t="shared" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="F91" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="9">
-        <f t="shared" si="12"/>
-        <v>88</v>
-      </c>
-      <c r="F91" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G91" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G91" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H91" s="28"/>
@@ -6056,19 +6056,19 @@
       <c r="B92" s="47"/>
       <c r="C92" s="47"/>
       <c r="D92" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="9">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="F92" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="9">
-        <f t="shared" si="12"/>
-        <v>89</v>
-      </c>
-      <c r="F92" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G92" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G92" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H92" s="28"/>
@@ -6087,19 +6087,19 @@
       <c r="B93" s="47"/>
       <c r="C93" s="47"/>
       <c r="D93" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="9">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="F93" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="9">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="F93" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G93" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G93" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H93" s="28"/>
@@ -6118,19 +6118,19 @@
       <c r="B94" s="47"/>
       <c r="C94" s="47"/>
       <c r="D94" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="9">
+        <f t="shared" si="11"/>
+        <v>91</v>
+      </c>
+      <c r="F94" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="9">
-        <f t="shared" si="12"/>
-        <v>91</v>
-      </c>
-      <c r="F94" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G94" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G94" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H94" s="28"/>
@@ -6149,19 +6149,19 @@
       <c r="B95" s="47"/>
       <c r="C95" s="47"/>
       <c r="D95" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="9">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="F95" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="9">
-        <f t="shared" si="12"/>
-        <v>92</v>
-      </c>
-      <c r="F95" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G95" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G95" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H95" s="28"/>
@@ -6180,19 +6180,19 @@
       <c r="B96" s="47"/>
       <c r="C96" s="47"/>
       <c r="D96" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="9">
+        <f t="shared" si="11"/>
+        <v>93</v>
+      </c>
+      <c r="F96" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="9">
-        <f t="shared" si="12"/>
-        <v>93</v>
-      </c>
-      <c r="F96" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G96" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G96" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H96" s="28"/>
@@ -6211,19 +6211,19 @@
       <c r="B97" s="47"/>
       <c r="C97" s="47"/>
       <c r="D97" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="9">
+        <f t="shared" si="11"/>
+        <v>94</v>
+      </c>
+      <c r="F97" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="9">
-        <f t="shared" si="12"/>
-        <v>94</v>
-      </c>
-      <c r="F97" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G97" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G97" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H97" s="28"/>
@@ -6242,19 +6242,19 @@
       <c r="B98" s="47"/>
       <c r="C98" s="47"/>
       <c r="D98" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="9">
+        <f t="shared" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="F98" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="9">
-        <f t="shared" si="12"/>
-        <v>95</v>
-      </c>
-      <c r="F98" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G98" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G98" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H98" s="28"/>
@@ -6273,19 +6273,19 @@
       <c r="B99" s="47"/>
       <c r="C99" s="47"/>
       <c r="D99" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="9">
+        <f t="shared" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="F99" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="9">
-        <f t="shared" si="12"/>
-        <v>96</v>
-      </c>
-      <c r="F99" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G99" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G99" s="10" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H99" s="28"/>
@@ -6304,19 +6304,19 @@
       <c r="B100" s="47"/>
       <c r="C100" s="47"/>
       <c r="D100" s="8">
-        <f t="shared" ref="D100:D131" si="13">IF(ISBLANK(C100),0,B100-C100)</f>
+        <f t="shared" ref="D100:D131" si="12">IF(ISBLANK(C100),0,B100-C100)</f>
         <v>0</v>
       </c>
       <c r="E100" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="F100" s="10" t="str">
-        <f t="shared" ref="F100:F131" si="14">IF($K$13&lt;E100,"",D100)</f>
+        <f t="shared" ref="F100:F131" si="13">IF($K$13&lt;E100,"",D100)</f>
         <v/>
       </c>
       <c r="G100" s="10" t="str">
-        <f t="shared" ref="G100:G131" si="15">IF(ISBLANK(C100),"",IF($K$13&lt;E100,"",D100*$K$15))</f>
+        <f t="shared" ref="G100:G131" si="14">IF(ISBLANK(C100),"",IF($K$13&lt;E100,"",D100*$K$15))</f>
         <v/>
       </c>
       <c r="H100" s="28"/>
@@ -6335,19 +6335,19 @@
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
       <c r="D101" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="9">
+        <f t="shared" ref="E101:E132" si="15">E100+1</f>
+        <v>98</v>
+      </c>
+      <c r="F101" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="9">
-        <f t="shared" ref="E101:E132" si="16">E100+1</f>
-        <v>98</v>
-      </c>
-      <c r="F101" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G101" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G101" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H101" s="28"/>
@@ -6366,19 +6366,19 @@
       <c r="B102" s="47"/>
       <c r="C102" s="47"/>
       <c r="D102" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="9">
+        <f t="shared" si="15"/>
+        <v>99</v>
+      </c>
+      <c r="F102" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="9">
-        <f t="shared" si="16"/>
-        <v>99</v>
-      </c>
-      <c r="F102" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G102" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G102" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H102" s="28"/>
@@ -6397,19 +6397,19 @@
       <c r="B103" s="47"/>
       <c r="C103" s="47"/>
       <c r="D103" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="9">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="F103" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E103" s="9">
-        <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F103" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G103" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G103" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H103" s="28"/>
@@ -6428,19 +6428,19 @@
       <c r="B104" s="47"/>
       <c r="C104" s="47"/>
       <c r="D104" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="9">
+        <f t="shared" si="15"/>
+        <v>101</v>
+      </c>
+      <c r="F104" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E104" s="9">
-        <f t="shared" si="16"/>
-        <v>101</v>
-      </c>
-      <c r="F104" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G104" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G104" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H104" s="28"/>
@@ -6459,19 +6459,19 @@
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
       <c r="D105" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="9">
+        <f t="shared" si="15"/>
+        <v>102</v>
+      </c>
+      <c r="F105" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E105" s="9">
-        <f t="shared" si="16"/>
-        <v>102</v>
-      </c>
-      <c r="F105" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G105" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G105" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H105" s="28"/>
@@ -6490,19 +6490,19 @@
       <c r="B106" s="47"/>
       <c r="C106" s="47"/>
       <c r="D106" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="9">
+        <f t="shared" si="15"/>
+        <v>103</v>
+      </c>
+      <c r="F106" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E106" s="9">
-        <f t="shared" si="16"/>
-        <v>103</v>
-      </c>
-      <c r="F106" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G106" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G106" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H106" s="28"/>
@@ -6521,19 +6521,19 @@
       <c r="B107" s="47"/>
       <c r="C107" s="47"/>
       <c r="D107" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="9">
+        <f t="shared" si="15"/>
+        <v>104</v>
+      </c>
+      <c r="F107" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E107" s="9">
-        <f t="shared" si="16"/>
-        <v>104</v>
-      </c>
-      <c r="F107" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G107" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G107" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H107" s="28"/>
@@ -6552,19 +6552,19 @@
       <c r="B108" s="47"/>
       <c r="C108" s="47"/>
       <c r="D108" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E108" s="9">
+        <f t="shared" si="15"/>
+        <v>105</v>
+      </c>
+      <c r="F108" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E108" s="9">
-        <f t="shared" si="16"/>
-        <v>105</v>
-      </c>
-      <c r="F108" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G108" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G108" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H108" s="28"/>
@@ -6583,19 +6583,19 @@
       <c r="B109" s="47"/>
       <c r="C109" s="47"/>
       <c r="D109" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="9">
+        <f t="shared" si="15"/>
+        <v>106</v>
+      </c>
+      <c r="F109" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E109" s="9">
-        <f t="shared" si="16"/>
-        <v>106</v>
-      </c>
-      <c r="F109" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G109" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G109" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H109" s="28"/>
@@ -6614,19 +6614,19 @@
       <c r="B110" s="47"/>
       <c r="C110" s="47"/>
       <c r="D110" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="9">
+        <f t="shared" si="15"/>
+        <v>107</v>
+      </c>
+      <c r="F110" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E110" s="9">
-        <f t="shared" si="16"/>
-        <v>107</v>
-      </c>
-      <c r="F110" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G110" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G110" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H110" s="28"/>
@@ -6645,19 +6645,19 @@
       <c r="B111" s="47"/>
       <c r="C111" s="47"/>
       <c r="D111" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="9">
+        <f t="shared" si="15"/>
+        <v>108</v>
+      </c>
+      <c r="F111" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E111" s="9">
-        <f t="shared" si="16"/>
-        <v>108</v>
-      </c>
-      <c r="F111" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G111" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G111" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H111" s="28"/>
@@ -6676,19 +6676,19 @@
       <c r="B112" s="47"/>
       <c r="C112" s="47"/>
       <c r="D112" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E112" s="9">
+        <f t="shared" si="15"/>
+        <v>109</v>
+      </c>
+      <c r="F112" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E112" s="9">
-        <f t="shared" si="16"/>
-        <v>109</v>
-      </c>
-      <c r="F112" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G112" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G112" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H112" s="28"/>
@@ -6707,19 +6707,19 @@
       <c r="B113" s="47"/>
       <c r="C113" s="47"/>
       <c r="D113" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="9">
+        <f t="shared" si="15"/>
+        <v>110</v>
+      </c>
+      <c r="F113" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E113" s="9">
-        <f t="shared" si="16"/>
-        <v>110</v>
-      </c>
-      <c r="F113" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G113" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G113" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H113" s="28"/>
@@ -6738,19 +6738,19 @@
       <c r="B114" s="47"/>
       <c r="C114" s="47"/>
       <c r="D114" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="9">
+        <f t="shared" si="15"/>
+        <v>111</v>
+      </c>
+      <c r="F114" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E114" s="9">
-        <f t="shared" si="16"/>
-        <v>111</v>
-      </c>
-      <c r="F114" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G114" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G114" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H114" s="28"/>
@@ -6769,19 +6769,19 @@
       <c r="B115" s="47"/>
       <c r="C115" s="47"/>
       <c r="D115" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="9">
+        <f t="shared" si="15"/>
+        <v>112</v>
+      </c>
+      <c r="F115" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E115" s="9">
-        <f t="shared" si="16"/>
-        <v>112</v>
-      </c>
-      <c r="F115" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G115" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G115" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H115" s="28"/>
@@ -6800,19 +6800,19 @@
       <c r="B116" s="47"/>
       <c r="C116" s="47"/>
       <c r="D116" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="9">
+        <f t="shared" si="15"/>
+        <v>113</v>
+      </c>
+      <c r="F116" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E116" s="9">
-        <f t="shared" si="16"/>
-        <v>113</v>
-      </c>
-      <c r="F116" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G116" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G116" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H116" s="28"/>
@@ -6831,19 +6831,19 @@
       <c r="B117" s="47"/>
       <c r="C117" s="47"/>
       <c r="D117" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E117" s="9">
+        <f t="shared" si="15"/>
+        <v>114</v>
+      </c>
+      <c r="F117" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E117" s="9">
-        <f t="shared" si="16"/>
-        <v>114</v>
-      </c>
-      <c r="F117" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G117" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G117" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H117" s="28"/>
@@ -6862,19 +6862,19 @@
       <c r="B118" s="47"/>
       <c r="C118" s="47"/>
       <c r="D118" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="9">
+        <f t="shared" si="15"/>
+        <v>115</v>
+      </c>
+      <c r="F118" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E118" s="9">
-        <f t="shared" si="16"/>
-        <v>115</v>
-      </c>
-      <c r="F118" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G118" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G118" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H118" s="28"/>
@@ -6893,19 +6893,19 @@
       <c r="B119" s="47"/>
       <c r="C119" s="47"/>
       <c r="D119" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="9">
+        <f t="shared" si="15"/>
+        <v>116</v>
+      </c>
+      <c r="F119" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E119" s="9">
-        <f t="shared" si="16"/>
-        <v>116</v>
-      </c>
-      <c r="F119" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G119" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G119" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H119" s="28"/>
@@ -6924,19 +6924,19 @@
       <c r="B120" s="47"/>
       <c r="C120" s="47"/>
       <c r="D120" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E120" s="9">
+        <f t="shared" si="15"/>
+        <v>117</v>
+      </c>
+      <c r="F120" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E120" s="9">
-        <f t="shared" si="16"/>
-        <v>117</v>
-      </c>
-      <c r="F120" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G120" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G120" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H120" s="28"/>
@@ -6955,19 +6955,19 @@
       <c r="B121" s="47"/>
       <c r="C121" s="47"/>
       <c r="D121" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="9">
+        <f t="shared" si="15"/>
+        <v>118</v>
+      </c>
+      <c r="F121" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E121" s="9">
-        <f t="shared" si="16"/>
-        <v>118</v>
-      </c>
-      <c r="F121" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G121" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G121" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H121" s="28"/>
@@ -6986,19 +6986,19 @@
       <c r="B122" s="47"/>
       <c r="C122" s="47"/>
       <c r="D122" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E122" s="9">
+        <f t="shared" si="15"/>
+        <v>119</v>
+      </c>
+      <c r="F122" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E122" s="9">
-        <f t="shared" si="16"/>
-        <v>119</v>
-      </c>
-      <c r="F122" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G122" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G122" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H122" s="28"/>
@@ -7017,19 +7017,19 @@
       <c r="B123" s="47"/>
       <c r="C123" s="47"/>
       <c r="D123" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E123" s="9">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="F123" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E123" s="9">
-        <f t="shared" si="16"/>
-        <v>120</v>
-      </c>
-      <c r="F123" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G123" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G123" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H123" s="28"/>
@@ -7048,19 +7048,19 @@
       <c r="B124" s="47"/>
       <c r="C124" s="47"/>
       <c r="D124" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="9">
+        <f t="shared" si="15"/>
+        <v>121</v>
+      </c>
+      <c r="F124" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E124" s="9">
-        <f t="shared" si="16"/>
-        <v>121</v>
-      </c>
-      <c r="F124" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G124" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G124" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H124" s="28"/>
@@ -7079,19 +7079,19 @@
       <c r="B125" s="47"/>
       <c r="C125" s="47"/>
       <c r="D125" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E125" s="9">
+        <f t="shared" si="15"/>
+        <v>122</v>
+      </c>
+      <c r="F125" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E125" s="9">
-        <f t="shared" si="16"/>
-        <v>122</v>
-      </c>
-      <c r="F125" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G125" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G125" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H125" s="28"/>
@@ -7110,19 +7110,19 @@
       <c r="B126" s="47"/>
       <c r="C126" s="47"/>
       <c r="D126" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E126" s="9">
+        <f t="shared" si="15"/>
+        <v>123</v>
+      </c>
+      <c r="F126" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E126" s="9">
-        <f t="shared" si="16"/>
-        <v>123</v>
-      </c>
-      <c r="F126" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G126" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G126" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H126" s="28"/>
@@ -7141,19 +7141,19 @@
       <c r="B127" s="47"/>
       <c r="C127" s="47"/>
       <c r="D127" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E127" s="9">
+        <f t="shared" si="15"/>
+        <v>124</v>
+      </c>
+      <c r="F127" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E127" s="9">
-        <f t="shared" si="16"/>
-        <v>124</v>
-      </c>
-      <c r="F127" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G127" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G127" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H127" s="28"/>
@@ -7172,19 +7172,19 @@
       <c r="B128" s="47"/>
       <c r="C128" s="47"/>
       <c r="D128" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E128" s="9">
+        <f t="shared" si="15"/>
+        <v>125</v>
+      </c>
+      <c r="F128" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E128" s="9">
-        <f t="shared" si="16"/>
-        <v>125</v>
-      </c>
-      <c r="F128" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G128" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G128" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H128" s="28"/>
@@ -7203,19 +7203,19 @@
       <c r="B129" s="47"/>
       <c r="C129" s="47"/>
       <c r="D129" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E129" s="9">
+        <f t="shared" si="15"/>
+        <v>126</v>
+      </c>
+      <c r="F129" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E129" s="9">
-        <f t="shared" si="16"/>
-        <v>126</v>
-      </c>
-      <c r="F129" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G129" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G129" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H129" s="28"/>
@@ -7234,19 +7234,19 @@
       <c r="B130" s="47"/>
       <c r="C130" s="47"/>
       <c r="D130" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E130" s="9">
+        <f t="shared" si="15"/>
+        <v>127</v>
+      </c>
+      <c r="F130" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E130" s="9">
-        <f t="shared" si="16"/>
-        <v>127</v>
-      </c>
-      <c r="F130" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G130" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G130" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H130" s="28"/>
@@ -7265,19 +7265,19 @@
       <c r="B131" s="47"/>
       <c r="C131" s="47"/>
       <c r="D131" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E131" s="9">
+        <f t="shared" si="15"/>
+        <v>128</v>
+      </c>
+      <c r="F131" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E131" s="9">
-        <f t="shared" si="16"/>
-        <v>128</v>
-      </c>
-      <c r="F131" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G131" s="10" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G131" s="10" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H131" s="28"/>
@@ -7296,19 +7296,19 @@
       <c r="B132" s="47"/>
       <c r="C132" s="47"/>
       <c r="D132" s="8">
-        <f t="shared" ref="D132:D163" si="17">IF(ISBLANK(C132),0,B132-C132)</f>
+        <f t="shared" ref="D132:D163" si="16">IF(ISBLANK(C132),0,B132-C132)</f>
         <v>0</v>
       </c>
       <c r="E132" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>129</v>
       </c>
       <c r="F132" s="10" t="str">
-        <f t="shared" ref="F132:F163" si="18">IF($K$13&lt;E132,"",D132)</f>
+        <f t="shared" ref="F132:F163" si="17">IF($K$13&lt;E132,"",D132)</f>
         <v/>
       </c>
       <c r="G132" s="10" t="str">
-        <f t="shared" ref="G132:G163" si="19">IF(ISBLANK(C132),"",IF($K$13&lt;E132,"",D132*$K$15))</f>
+        <f t="shared" ref="G132:G163" si="18">IF(ISBLANK(C132),"",IF($K$13&lt;E132,"",D132*$K$15))</f>
         <v/>
       </c>
       <c r="H132" s="28"/>
@@ -7327,19 +7327,19 @@
       <c r="B133" s="47"/>
       <c r="C133" s="47"/>
       <c r="D133" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E133" s="9">
+        <f t="shared" ref="E133:E164" si="19">E132+1</f>
+        <v>130</v>
+      </c>
+      <c r="F133" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E133" s="9">
-        <f t="shared" ref="E133:E164" si="20">E132+1</f>
-        <v>130</v>
-      </c>
-      <c r="F133" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G133" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G133" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H133" s="28"/>
@@ -7358,19 +7358,19 @@
       <c r="B134" s="47"/>
       <c r="C134" s="47"/>
       <c r="D134" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="9">
+        <f t="shared" si="19"/>
+        <v>131</v>
+      </c>
+      <c r="F134" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="9">
-        <f t="shared" si="20"/>
-        <v>131</v>
-      </c>
-      <c r="F134" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G134" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G134" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H134" s="28"/>
@@ -7389,19 +7389,19 @@
       <c r="B135" s="47"/>
       <c r="C135" s="47"/>
       <c r="D135" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="9">
+        <f t="shared" si="19"/>
+        <v>132</v>
+      </c>
+      <c r="F135" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="9">
-        <f t="shared" si="20"/>
-        <v>132</v>
-      </c>
-      <c r="F135" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G135" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G135" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H135" s="28"/>
@@ -7420,19 +7420,19 @@
       <c r="B136" s="47"/>
       <c r="C136" s="47"/>
       <c r="D136" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="9">
+        <f t="shared" si="19"/>
+        <v>133</v>
+      </c>
+      <c r="F136" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="9">
-        <f t="shared" si="20"/>
-        <v>133</v>
-      </c>
-      <c r="F136" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G136" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G136" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H136" s="28"/>
@@ -7451,19 +7451,19 @@
       <c r="B137" s="47"/>
       <c r="C137" s="47"/>
       <c r="D137" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="9">
+        <f t="shared" si="19"/>
+        <v>134</v>
+      </c>
+      <c r="F137" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="9">
-        <f t="shared" si="20"/>
-        <v>134</v>
-      </c>
-      <c r="F137" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G137" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G137" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H137" s="28"/>
@@ -7482,19 +7482,19 @@
       <c r="B138" s="47"/>
       <c r="C138" s="47"/>
       <c r="D138" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="9">
+        <f t="shared" si="19"/>
+        <v>135</v>
+      </c>
+      <c r="F138" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="9">
-        <f t="shared" si="20"/>
-        <v>135</v>
-      </c>
-      <c r="F138" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G138" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G138" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H138" s="28"/>
@@ -7513,19 +7513,19 @@
       <c r="B139" s="47"/>
       <c r="C139" s="47"/>
       <c r="D139" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="9">
+        <f t="shared" si="19"/>
+        <v>136</v>
+      </c>
+      <c r="F139" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E139" s="9">
-        <f t="shared" si="20"/>
-        <v>136</v>
-      </c>
-      <c r="F139" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G139" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G139" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H139" s="28"/>
@@ -7544,19 +7544,19 @@
       <c r="B140" s="47"/>
       <c r="C140" s="47"/>
       <c r="D140" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="9">
+        <f t="shared" si="19"/>
+        <v>137</v>
+      </c>
+      <c r="F140" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="9">
-        <f t="shared" si="20"/>
-        <v>137</v>
-      </c>
-      <c r="F140" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G140" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G140" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H140" s="28"/>
@@ -7575,19 +7575,19 @@
       <c r="B141" s="47"/>
       <c r="C141" s="47"/>
       <c r="D141" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="9">
+        <f t="shared" si="19"/>
+        <v>138</v>
+      </c>
+      <c r="F141" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="9">
-        <f t="shared" si="20"/>
-        <v>138</v>
-      </c>
-      <c r="F141" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G141" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G141" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H141" s="28"/>
@@ -7606,19 +7606,19 @@
       <c r="B142" s="47"/>
       <c r="C142" s="47"/>
       <c r="D142" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="9">
+        <f t="shared" si="19"/>
+        <v>139</v>
+      </c>
+      <c r="F142" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="9">
-        <f t="shared" si="20"/>
-        <v>139</v>
-      </c>
-      <c r="F142" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G142" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G142" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H142" s="28"/>
@@ -7637,19 +7637,19 @@
       <c r="B143" s="47"/>
       <c r="C143" s="47"/>
       <c r="D143" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="9">
+        <f t="shared" si="19"/>
+        <v>140</v>
+      </c>
+      <c r="F143" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="9">
-        <f t="shared" si="20"/>
-        <v>140</v>
-      </c>
-      <c r="F143" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G143" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G143" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H143" s="28"/>
@@ -7668,19 +7668,19 @@
       <c r="B144" s="47"/>
       <c r="C144" s="47"/>
       <c r="D144" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="9">
+        <f t="shared" si="19"/>
+        <v>141</v>
+      </c>
+      <c r="F144" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="9">
-        <f t="shared" si="20"/>
-        <v>141</v>
-      </c>
-      <c r="F144" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G144" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G144" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H144" s="28"/>
@@ -7699,19 +7699,19 @@
       <c r="B145" s="47"/>
       <c r="C145" s="47"/>
       <c r="D145" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="9">
+        <f t="shared" si="19"/>
+        <v>142</v>
+      </c>
+      <c r="F145" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="9">
-        <f t="shared" si="20"/>
-        <v>142</v>
-      </c>
-      <c r="F145" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G145" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G145" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H145" s="28"/>
@@ -7730,19 +7730,19 @@
       <c r="B146" s="47"/>
       <c r="C146" s="47"/>
       <c r="D146" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="9">
+        <f t="shared" si="19"/>
+        <v>143</v>
+      </c>
+      <c r="F146" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="9">
-        <f t="shared" si="20"/>
-        <v>143</v>
-      </c>
-      <c r="F146" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G146" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G146" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H146" s="28"/>
@@ -7761,19 +7761,19 @@
       <c r="B147" s="47"/>
       <c r="C147" s="47"/>
       <c r="D147" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="9">
+        <f t="shared" si="19"/>
+        <v>144</v>
+      </c>
+      <c r="F147" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="9">
-        <f t="shared" si="20"/>
-        <v>144</v>
-      </c>
-      <c r="F147" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G147" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G147" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H147" s="28"/>
@@ -7792,19 +7792,19 @@
       <c r="B148" s="47"/>
       <c r="C148" s="47"/>
       <c r="D148" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="9">
+        <f t="shared" si="19"/>
+        <v>145</v>
+      </c>
+      <c r="F148" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="9">
-        <f t="shared" si="20"/>
-        <v>145</v>
-      </c>
-      <c r="F148" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G148" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G148" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H148" s="28"/>
@@ -7823,19 +7823,19 @@
       <c r="B149" s="47"/>
       <c r="C149" s="47"/>
       <c r="D149" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="9">
+        <f t="shared" si="19"/>
+        <v>146</v>
+      </c>
+      <c r="F149" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="9">
-        <f t="shared" si="20"/>
-        <v>146</v>
-      </c>
-      <c r="F149" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G149" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G149" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H149" s="28"/>
@@ -7854,19 +7854,19 @@
       <c r="B150" s="47"/>
       <c r="C150" s="47"/>
       <c r="D150" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E150" s="9">
+        <f t="shared" si="19"/>
+        <v>147</v>
+      </c>
+      <c r="F150" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E150" s="9">
-        <f t="shared" si="20"/>
-        <v>147</v>
-      </c>
-      <c r="F150" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G150" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G150" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H150" s="28"/>
@@ -7885,19 +7885,19 @@
       <c r="B151" s="47"/>
       <c r="C151" s="47"/>
       <c r="D151" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E151" s="9">
+        <f t="shared" si="19"/>
+        <v>148</v>
+      </c>
+      <c r="F151" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E151" s="9">
-        <f t="shared" si="20"/>
-        <v>148</v>
-      </c>
-      <c r="F151" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G151" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G151" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H151" s="28"/>
@@ -7916,19 +7916,19 @@
       <c r="B152" s="47"/>
       <c r="C152" s="47"/>
       <c r="D152" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E152" s="9">
+        <f t="shared" si="19"/>
+        <v>149</v>
+      </c>
+      <c r="F152" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E152" s="9">
-        <f t="shared" si="20"/>
-        <v>149</v>
-      </c>
-      <c r="F152" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G152" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G152" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H152" s="28"/>
@@ -7947,19 +7947,19 @@
       <c r="B153" s="47"/>
       <c r="C153" s="47"/>
       <c r="D153" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E153" s="9">
+        <f t="shared" si="19"/>
+        <v>150</v>
+      </c>
+      <c r="F153" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E153" s="9">
-        <f t="shared" si="20"/>
-        <v>150</v>
-      </c>
-      <c r="F153" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G153" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G153" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H153" s="28"/>
@@ -7978,19 +7978,19 @@
       <c r="B154" s="47"/>
       <c r="C154" s="47"/>
       <c r="D154" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E154" s="9">
+        <f t="shared" si="19"/>
+        <v>151</v>
+      </c>
+      <c r="F154" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E154" s="9">
-        <f t="shared" si="20"/>
-        <v>151</v>
-      </c>
-      <c r="F154" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G154" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G154" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H154" s="28"/>
@@ -8009,19 +8009,19 @@
       <c r="B155" s="47"/>
       <c r="C155" s="47"/>
       <c r="D155" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E155" s="9">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="F155" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E155" s="9">
-        <f t="shared" si="20"/>
-        <v>152</v>
-      </c>
-      <c r="F155" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G155" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G155" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H155" s="28"/>
@@ -8040,19 +8040,19 @@
       <c r="B156" s="47"/>
       <c r="C156" s="47"/>
       <c r="D156" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E156" s="9">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="F156" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E156" s="9">
-        <f t="shared" si="20"/>
-        <v>153</v>
-      </c>
-      <c r="F156" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G156" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G156" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H156" s="28"/>
@@ -8071,19 +8071,19 @@
       <c r="B157" s="47"/>
       <c r="C157" s="47"/>
       <c r="D157" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E157" s="9">
+        <f t="shared" si="19"/>
+        <v>154</v>
+      </c>
+      <c r="F157" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E157" s="9">
-        <f t="shared" si="20"/>
-        <v>154</v>
-      </c>
-      <c r="F157" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G157" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G157" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H157" s="28"/>
@@ -8102,19 +8102,19 @@
       <c r="B158" s="47"/>
       <c r="C158" s="47"/>
       <c r="D158" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E158" s="9">
+        <f t="shared" si="19"/>
+        <v>155</v>
+      </c>
+      <c r="F158" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E158" s="9">
-        <f t="shared" si="20"/>
-        <v>155</v>
-      </c>
-      <c r="F158" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G158" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G158" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H158" s="28"/>
@@ -8133,19 +8133,19 @@
       <c r="B159" s="47"/>
       <c r="C159" s="47"/>
       <c r="D159" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E159" s="9">
+        <f t="shared" si="19"/>
+        <v>156</v>
+      </c>
+      <c r="F159" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E159" s="9">
-        <f t="shared" si="20"/>
-        <v>156</v>
-      </c>
-      <c r="F159" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G159" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G159" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H159" s="28"/>
@@ -8164,19 +8164,19 @@
       <c r="B160" s="47"/>
       <c r="C160" s="47"/>
       <c r="D160" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E160" s="9">
+        <f t="shared" si="19"/>
+        <v>157</v>
+      </c>
+      <c r="F160" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E160" s="9">
-        <f t="shared" si="20"/>
-        <v>157</v>
-      </c>
-      <c r="F160" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G160" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G160" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H160" s="28"/>
@@ -8195,19 +8195,19 @@
       <c r="B161" s="47"/>
       <c r="C161" s="47"/>
       <c r="D161" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E161" s="9">
+        <f t="shared" si="19"/>
+        <v>158</v>
+      </c>
+      <c r="F161" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E161" s="9">
-        <f t="shared" si="20"/>
-        <v>158</v>
-      </c>
-      <c r="F161" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G161" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G161" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H161" s="28"/>
@@ -8226,19 +8226,19 @@
       <c r="B162" s="47"/>
       <c r="C162" s="47"/>
       <c r="D162" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E162" s="9">
+        <f t="shared" si="19"/>
+        <v>159</v>
+      </c>
+      <c r="F162" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E162" s="9">
-        <f t="shared" si="20"/>
-        <v>159</v>
-      </c>
-      <c r="F162" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G162" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G162" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H162" s="28"/>
@@ -8257,19 +8257,19 @@
       <c r="B163" s="47"/>
       <c r="C163" s="47"/>
       <c r="D163" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E163" s="9">
+        <f t="shared" si="19"/>
+        <v>160</v>
+      </c>
+      <c r="F163" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E163" s="9">
-        <f t="shared" si="20"/>
-        <v>160</v>
-      </c>
-      <c r="F163" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G163" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G163" s="10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H163" s="28"/>
@@ -8288,19 +8288,19 @@
       <c r="B164" s="47"/>
       <c r="C164" s="47"/>
       <c r="D164" s="8">
-        <f t="shared" ref="D164:D195" si="21">IF(ISBLANK(C164),0,B164-C164)</f>
+        <f t="shared" ref="D164:D195" si="20">IF(ISBLANK(C164),0,B164-C164)</f>
         <v>0</v>
       </c>
       <c r="E164" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>161</v>
       </c>
       <c r="F164" s="10" t="str">
-        <f t="shared" ref="F164:F195" si="22">IF($K$13&lt;E164,"",D164)</f>
+        <f t="shared" ref="F164:F195" si="21">IF($K$13&lt;E164,"",D164)</f>
         <v/>
       </c>
       <c r="G164" s="10" t="str">
-        <f t="shared" ref="G164:G195" si="23">IF(ISBLANK(C164),"",IF($K$13&lt;E164,"",D164*$K$15))</f>
+        <f t="shared" ref="G164:G195" si="22">IF(ISBLANK(C164),"",IF($K$13&lt;E164,"",D164*$K$15))</f>
         <v/>
       </c>
       <c r="H164" s="28"/>
@@ -8319,19 +8319,19 @@
       <c r="B165" s="47"/>
       <c r="C165" s="47"/>
       <c r="D165" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E165" s="9">
+        <f t="shared" ref="E165:E196" si="23">E164+1</f>
+        <v>162</v>
+      </c>
+      <c r="F165" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E165" s="9">
-        <f t="shared" ref="E165:E196" si="24">E164+1</f>
-        <v>162</v>
-      </c>
-      <c r="F165" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G165" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G165" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H165" s="28"/>
@@ -8350,19 +8350,19 @@
       <c r="B166" s="47"/>
       <c r="C166" s="47"/>
       <c r="D166" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E166" s="9">
+        <f t="shared" si="23"/>
+        <v>163</v>
+      </c>
+      <c r="F166" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E166" s="9">
-        <f t="shared" si="24"/>
-        <v>163</v>
-      </c>
-      <c r="F166" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G166" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G166" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H166" s="28"/>
@@ -8381,19 +8381,19 @@
       <c r="B167" s="47"/>
       <c r="C167" s="47"/>
       <c r="D167" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E167" s="9">
+        <f t="shared" si="23"/>
+        <v>164</v>
+      </c>
+      <c r="F167" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E167" s="9">
-        <f t="shared" si="24"/>
-        <v>164</v>
-      </c>
-      <c r="F167" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G167" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G167" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H167" s="28"/>
@@ -8412,19 +8412,19 @@
       <c r="B168" s="47"/>
       <c r="C168" s="47"/>
       <c r="D168" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E168" s="9">
+        <f t="shared" si="23"/>
+        <v>165</v>
+      </c>
+      <c r="F168" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E168" s="9">
-        <f t="shared" si="24"/>
-        <v>165</v>
-      </c>
-      <c r="F168" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G168" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G168" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H168" s="28"/>
@@ -8443,19 +8443,19 @@
       <c r="B169" s="47"/>
       <c r="C169" s="47"/>
       <c r="D169" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E169" s="9">
+        <f t="shared" si="23"/>
+        <v>166</v>
+      </c>
+      <c r="F169" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E169" s="9">
-        <f t="shared" si="24"/>
-        <v>166</v>
-      </c>
-      <c r="F169" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G169" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G169" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H169" s="28"/>
@@ -8474,19 +8474,19 @@
       <c r="B170" s="47"/>
       <c r="C170" s="47"/>
       <c r="D170" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E170" s="9">
+        <f t="shared" si="23"/>
+        <v>167</v>
+      </c>
+      <c r="F170" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E170" s="9">
-        <f t="shared" si="24"/>
-        <v>167</v>
-      </c>
-      <c r="F170" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G170" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G170" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H170" s="28"/>
@@ -8505,19 +8505,19 @@
       <c r="B171" s="47"/>
       <c r="C171" s="47"/>
       <c r="D171" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E171" s="9">
+        <f t="shared" si="23"/>
+        <v>168</v>
+      </c>
+      <c r="F171" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E171" s="9">
-        <f t="shared" si="24"/>
-        <v>168</v>
-      </c>
-      <c r="F171" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G171" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G171" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H171" s="28"/>
@@ -8536,19 +8536,19 @@
       <c r="B172" s="47"/>
       <c r="C172" s="47"/>
       <c r="D172" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E172" s="9">
+        <f t="shared" si="23"/>
+        <v>169</v>
+      </c>
+      <c r="F172" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E172" s="9">
-        <f t="shared" si="24"/>
-        <v>169</v>
-      </c>
-      <c r="F172" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G172" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G172" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H172" s="28"/>
@@ -8567,19 +8567,19 @@
       <c r="B173" s="47"/>
       <c r="C173" s="47"/>
       <c r="D173" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E173" s="9">
+        <f t="shared" si="23"/>
+        <v>170</v>
+      </c>
+      <c r="F173" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E173" s="9">
-        <f t="shared" si="24"/>
-        <v>170</v>
-      </c>
-      <c r="F173" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G173" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G173" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H173" s="28"/>
@@ -8598,19 +8598,19 @@
       <c r="B174" s="47"/>
       <c r="C174" s="47"/>
       <c r="D174" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E174" s="9">
+        <f t="shared" si="23"/>
+        <v>171</v>
+      </c>
+      <c r="F174" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E174" s="9">
-        <f t="shared" si="24"/>
-        <v>171</v>
-      </c>
-      <c r="F174" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G174" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G174" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H174" s="28"/>
@@ -8629,19 +8629,19 @@
       <c r="B175" s="47"/>
       <c r="C175" s="47"/>
       <c r="D175" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E175" s="9">
+        <f t="shared" si="23"/>
+        <v>172</v>
+      </c>
+      <c r="F175" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E175" s="9">
-        <f t="shared" si="24"/>
-        <v>172</v>
-      </c>
-      <c r="F175" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G175" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G175" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H175" s="28"/>
@@ -8660,19 +8660,19 @@
       <c r="B176" s="47"/>
       <c r="C176" s="47"/>
       <c r="D176" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E176" s="9">
+        <f t="shared" si="23"/>
+        <v>173</v>
+      </c>
+      <c r="F176" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E176" s="9">
-        <f t="shared" si="24"/>
-        <v>173</v>
-      </c>
-      <c r="F176" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G176" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G176" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H176" s="28"/>
@@ -8691,19 +8691,19 @@
       <c r="B177" s="47"/>
       <c r="C177" s="47"/>
       <c r="D177" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E177" s="9">
+        <f t="shared" si="23"/>
+        <v>174</v>
+      </c>
+      <c r="F177" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E177" s="9">
-        <f t="shared" si="24"/>
-        <v>174</v>
-      </c>
-      <c r="F177" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G177" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G177" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H177" s="28"/>
@@ -8722,19 +8722,19 @@
       <c r="B178" s="47"/>
       <c r="C178" s="47"/>
       <c r="D178" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E178" s="9">
+        <f t="shared" si="23"/>
+        <v>175</v>
+      </c>
+      <c r="F178" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E178" s="9">
-        <f t="shared" si="24"/>
-        <v>175</v>
-      </c>
-      <c r="F178" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G178" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G178" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H178" s="28"/>
@@ -8753,19 +8753,19 @@
       <c r="B179" s="47"/>
       <c r="C179" s="47"/>
       <c r="D179" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E179" s="9">
+        <f t="shared" si="23"/>
+        <v>176</v>
+      </c>
+      <c r="F179" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E179" s="9">
-        <f t="shared" si="24"/>
-        <v>176</v>
-      </c>
-      <c r="F179" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G179" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G179" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H179" s="28"/>
@@ -8784,19 +8784,19 @@
       <c r="B180" s="47"/>
       <c r="C180" s="47"/>
       <c r="D180" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E180" s="9">
+        <f t="shared" si="23"/>
+        <v>177</v>
+      </c>
+      <c r="F180" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E180" s="9">
-        <f t="shared" si="24"/>
-        <v>177</v>
-      </c>
-      <c r="F180" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G180" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G180" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H180" s="28"/>
@@ -8815,19 +8815,19 @@
       <c r="B181" s="47"/>
       <c r="C181" s="47"/>
       <c r="D181" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E181" s="9">
+        <f t="shared" si="23"/>
+        <v>178</v>
+      </c>
+      <c r="F181" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E181" s="9">
-        <f t="shared" si="24"/>
-        <v>178</v>
-      </c>
-      <c r="F181" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G181" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G181" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H181" s="28"/>
@@ -8846,19 +8846,19 @@
       <c r="B182" s="47"/>
       <c r="C182" s="47"/>
       <c r="D182" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E182" s="9">
+        <f t="shared" si="23"/>
+        <v>179</v>
+      </c>
+      <c r="F182" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E182" s="9">
-        <f t="shared" si="24"/>
-        <v>179</v>
-      </c>
-      <c r="F182" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G182" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G182" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H182" s="28"/>
@@ -8877,19 +8877,19 @@
       <c r="B183" s="47"/>
       <c r="C183" s="47"/>
       <c r="D183" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E183" s="9">
+        <f t="shared" si="23"/>
+        <v>180</v>
+      </c>
+      <c r="F183" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E183" s="9">
-        <f t="shared" si="24"/>
-        <v>180</v>
-      </c>
-      <c r="F183" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G183" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G183" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H183" s="28"/>
@@ -8908,19 +8908,19 @@
       <c r="B184" s="47"/>
       <c r="C184" s="47"/>
       <c r="D184" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E184" s="9">
+        <f t="shared" si="23"/>
+        <v>181</v>
+      </c>
+      <c r="F184" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E184" s="9">
-        <f t="shared" si="24"/>
-        <v>181</v>
-      </c>
-      <c r="F184" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G184" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G184" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H184" s="28"/>
@@ -8939,19 +8939,19 @@
       <c r="B185" s="47"/>
       <c r="C185" s="47"/>
       <c r="D185" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E185" s="9">
+        <f t="shared" si="23"/>
+        <v>182</v>
+      </c>
+      <c r="F185" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E185" s="9">
-        <f t="shared" si="24"/>
-        <v>182</v>
-      </c>
-      <c r="F185" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G185" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G185" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H185" s="28"/>
@@ -8970,19 +8970,19 @@
       <c r="B186" s="47"/>
       <c r="C186" s="47"/>
       <c r="D186" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E186" s="9">
+        <f t="shared" si="23"/>
+        <v>183</v>
+      </c>
+      <c r="F186" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E186" s="9">
-        <f t="shared" si="24"/>
-        <v>183</v>
-      </c>
-      <c r="F186" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G186" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G186" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H186" s="28"/>
@@ -9001,19 +9001,19 @@
       <c r="B187" s="47"/>
       <c r="C187" s="47"/>
       <c r="D187" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E187" s="9">
+        <f t="shared" si="23"/>
+        <v>184</v>
+      </c>
+      <c r="F187" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E187" s="9">
-        <f t="shared" si="24"/>
-        <v>184</v>
-      </c>
-      <c r="F187" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G187" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G187" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H187" s="28"/>
@@ -9032,19 +9032,19 @@
       <c r="B188" s="47"/>
       <c r="C188" s="47"/>
       <c r="D188" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E188" s="9">
+        <f t="shared" si="23"/>
+        <v>185</v>
+      </c>
+      <c r="F188" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E188" s="9">
-        <f t="shared" si="24"/>
-        <v>185</v>
-      </c>
-      <c r="F188" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G188" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G188" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H188" s="28"/>
@@ -9063,19 +9063,19 @@
       <c r="B189" s="47"/>
       <c r="C189" s="47"/>
       <c r="D189" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E189" s="9">
+        <f t="shared" si="23"/>
+        <v>186</v>
+      </c>
+      <c r="F189" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E189" s="9">
-        <f t="shared" si="24"/>
-        <v>186</v>
-      </c>
-      <c r="F189" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G189" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G189" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H189" s="28"/>
@@ -9094,19 +9094,19 @@
       <c r="B190" s="47"/>
       <c r="C190" s="47"/>
       <c r="D190" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E190" s="9">
+        <f t="shared" si="23"/>
+        <v>187</v>
+      </c>
+      <c r="F190" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E190" s="9">
-        <f t="shared" si="24"/>
-        <v>187</v>
-      </c>
-      <c r="F190" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G190" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G190" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H190" s="28"/>
@@ -9125,19 +9125,19 @@
       <c r="B191" s="47"/>
       <c r="C191" s="47"/>
       <c r="D191" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E191" s="9">
+        <f t="shared" si="23"/>
+        <v>188</v>
+      </c>
+      <c r="F191" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E191" s="9">
-        <f t="shared" si="24"/>
-        <v>188</v>
-      </c>
-      <c r="F191" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G191" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G191" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H191" s="28"/>
@@ -9156,19 +9156,19 @@
       <c r="B192" s="47"/>
       <c r="C192" s="47"/>
       <c r="D192" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E192" s="9">
+        <f t="shared" si="23"/>
+        <v>189</v>
+      </c>
+      <c r="F192" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E192" s="9">
-        <f t="shared" si="24"/>
-        <v>189</v>
-      </c>
-      <c r="F192" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G192" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G192" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H192" s="28"/>
@@ -9187,19 +9187,19 @@
       <c r="B193" s="47"/>
       <c r="C193" s="47"/>
       <c r="D193" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E193" s="9">
+        <f t="shared" si="23"/>
+        <v>190</v>
+      </c>
+      <c r="F193" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E193" s="9">
-        <f t="shared" si="24"/>
-        <v>190</v>
-      </c>
-      <c r="F193" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G193" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G193" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H193" s="28"/>
@@ -9218,19 +9218,19 @@
       <c r="B194" s="47"/>
       <c r="C194" s="47"/>
       <c r="D194" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E194" s="9">
+        <f t="shared" si="23"/>
+        <v>191</v>
+      </c>
+      <c r="F194" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E194" s="9">
-        <f t="shared" si="24"/>
-        <v>191</v>
-      </c>
-      <c r="F194" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G194" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G194" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H194" s="28"/>
@@ -9249,19 +9249,19 @@
       <c r="B195" s="47"/>
       <c r="C195" s="47"/>
       <c r="D195" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E195" s="9">
+        <f t="shared" si="23"/>
+        <v>192</v>
+      </c>
+      <c r="F195" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E195" s="9">
-        <f t="shared" si="24"/>
-        <v>192</v>
-      </c>
-      <c r="F195" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G195" s="10" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G195" s="10" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H195" s="28"/>
@@ -9280,19 +9280,19 @@
       <c r="B196" s="47"/>
       <c r="C196" s="47"/>
       <c r="D196" s="8">
-        <f t="shared" ref="D196:D203" si="25">IF(ISBLANK(C196),0,B196-C196)</f>
+        <f t="shared" ref="D196:D203" si="24">IF(ISBLANK(C196),0,B196-C196)</f>
         <v>0</v>
       </c>
       <c r="E196" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>193</v>
       </c>
       <c r="F196" s="10" t="str">
-        <f t="shared" ref="F196:F203" si="26">IF($K$13&lt;E196,"",D196)</f>
+        <f t="shared" ref="F196:F203" si="25">IF($K$13&lt;E196,"",D196)</f>
         <v/>
       </c>
       <c r="G196" s="10" t="str">
-        <f t="shared" ref="G196:G203" si="27">IF(ISBLANK(C196),"",IF($K$13&lt;E196,"",D196*$K$15))</f>
+        <f t="shared" ref="G196:G203" si="26">IF(ISBLANK(C196),"",IF($K$13&lt;E196,"",D196*$K$15))</f>
         <v/>
       </c>
       <c r="H196" s="28"/>
@@ -9311,19 +9311,19 @@
       <c r="B197" s="47"/>
       <c r="C197" s="47"/>
       <c r="D197" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E197" s="9">
+        <f t="shared" ref="E197:E203" si="27">E196+1</f>
+        <v>194</v>
+      </c>
+      <c r="F197" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E197" s="9">
-        <f t="shared" ref="E197:E203" si="28">E196+1</f>
-        <v>194</v>
-      </c>
-      <c r="F197" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G197" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G197" s="10" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H197" s="28"/>
@@ -9342,19 +9342,19 @@
       <c r="B198" s="47"/>
       <c r="C198" s="47"/>
       <c r="D198" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E198" s="9">
+        <f t="shared" si="27"/>
+        <v>195</v>
+      </c>
+      <c r="F198" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E198" s="9">
-        <f t="shared" si="28"/>
-        <v>195</v>
-      </c>
-      <c r="F198" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G198" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G198" s="10" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H198" s="28"/>
@@ -9373,19 +9373,19 @@
       <c r="B199" s="47"/>
       <c r="C199" s="47"/>
       <c r="D199" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E199" s="9">
+        <f t="shared" si="27"/>
+        <v>196</v>
+      </c>
+      <c r="F199" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E199" s="9">
-        <f t="shared" si="28"/>
-        <v>196</v>
-      </c>
-      <c r="F199" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G199" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G199" s="10" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H199" s="28"/>
@@ -9404,19 +9404,19 @@
       <c r="B200" s="47"/>
       <c r="C200" s="47"/>
       <c r="D200" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E200" s="9">
+        <f t="shared" si="27"/>
+        <v>197</v>
+      </c>
+      <c r="F200" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E200" s="9">
-        <f t="shared" si="28"/>
-        <v>197</v>
-      </c>
-      <c r="F200" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G200" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G200" s="10" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H200" s="28"/>
@@ -9435,19 +9435,19 @@
       <c r="B201" s="47"/>
       <c r="C201" s="47"/>
       <c r="D201" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E201" s="9">
+        <f t="shared" si="27"/>
+        <v>198</v>
+      </c>
+      <c r="F201" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E201" s="9">
-        <f t="shared" si="28"/>
-        <v>198</v>
-      </c>
-      <c r="F201" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G201" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G201" s="10" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H201" s="28"/>
@@ -9466,19 +9466,19 @@
       <c r="B202" s="47"/>
       <c r="C202" s="47"/>
       <c r="D202" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E202" s="9">
+        <f t="shared" si="27"/>
+        <v>199</v>
+      </c>
+      <c r="F202" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E202" s="9">
-        <f t="shared" si="28"/>
-        <v>199</v>
-      </c>
-      <c r="F202" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G202" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G202" s="10" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H202" s="28"/>
@@ -9497,19 +9497,19 @@
       <c r="B203" s="47"/>
       <c r="C203" s="47"/>
       <c r="D203" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E203" s="9">
+        <f t="shared" si="27"/>
+        <v>200</v>
+      </c>
+      <c r="F203" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E203" s="9">
-        <f t="shared" si="28"/>
-        <v>200</v>
-      </c>
-      <c r="F203" s="10" t="str">
+        <v/>
+      </c>
+      <c r="G203" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G203" s="10" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H203" s="28"/>
@@ -9529,11 +9529,11 @@
       </c>
       <c r="C204" s="46">
         <f>SUM(C4:C203)</f>
-        <v>649.44008750272189</v>
+        <v>649.44008750272178</v>
       </c>
       <c r="D204" s="46">
         <f>SUM(D4:D203)</f>
-        <v>117.55991249727822</v>
+        <v>117.55991249727825</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -9619,15 +9619,15 @@
       <c r="N208" s="28"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A209" s="61" t="s">
+      <c r="A209" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B209" s="61"/>
-      <c r="C209" s="61"/>
-      <c r="D209" s="61"/>
-      <c r="E209" s="61"/>
-      <c r="F209" s="61"/>
-      <c r="G209" s="61"/>
+      <c r="B209" s="54"/>
+      <c r="C209" s="54"/>
+      <c r="D209" s="54"/>
+      <c r="E209" s="54"/>
+      <c r="F209" s="54"/>
+      <c r="G209" s="54"/>
       <c r="H209" s="28"/>
       <c r="I209" s="28"/>
       <c r="J209" s="28"/>
@@ -9637,14 +9637,14 @@
       <c r="N209" s="28"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A210" s="61" t="s">
+      <c r="A210" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B210" s="61"/>
-      <c r="C210" s="61"/>
-      <c r="D210" s="61"/>
-      <c r="E210" s="61"/>
-      <c r="F210" s="61"/>
+      <c r="B210" s="54"/>
+      <c r="C210" s="54"/>
+      <c r="D210" s="54"/>
+      <c r="E210" s="54"/>
+      <c r="F210" s="54"/>
       <c r="G210" s="3"/>
       <c r="H210" s="28"/>
       <c r="I210" s="28"/>
@@ -9655,12 +9655,12 @@
       <c r="N210" s="28"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A211" s="61" t="s">
+      <c r="A211" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B211" s="61"/>
-      <c r="C211" s="61"/>
-      <c r="D211" s="61"/>
+      <c r="B211" s="54"/>
+      <c r="C211" s="54"/>
+      <c r="D211" s="54"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -9673,12 +9673,12 @@
       <c r="N211" s="28"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212" s="61" t="s">
+      <c r="A212" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B212" s="61"/>
-      <c r="C212" s="61"/>
-      <c r="D212" s="61"/>
+      <c r="B212" s="54"/>
+      <c r="C212" s="54"/>
+      <c r="D212" s="54"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -9691,15 +9691,15 @@
       <c r="N212" s="28"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A213" s="61" t="s">
+      <c r="A213" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B213" s="61"/>
-      <c r="C213" s="61"/>
-      <c r="D213" s="61"/>
-      <c r="E213" s="61"/>
-      <c r="F213" s="61"/>
-      <c r="G213" s="61"/>
+      <c r="B213" s="54"/>
+      <c r="C213" s="54"/>
+      <c r="D213" s="54"/>
+      <c r="E213" s="54"/>
+      <c r="F213" s="54"/>
+      <c r="G213" s="54"/>
       <c r="H213" s="28"/>
       <c r="I213" s="28"/>
       <c r="J213" s="28"/>
@@ -9869,14 +9869,14 @@
       <c r="N222" s="28"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A223" s="62" t="s">
+      <c r="A223" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B223" s="62"/>
-      <c r="C223" s="62"/>
-      <c r="D223" s="62"/>
-      <c r="E223" s="62"/>
-      <c r="F223" s="62"/>
+      <c r="B223" s="55"/>
+      <c r="C223" s="55"/>
+      <c r="D223" s="55"/>
+      <c r="E223" s="55"/>
+      <c r="F223" s="55"/>
       <c r="G223" s="3"/>
       <c r="H223" s="28"/>
       <c r="I223" s="28"/>
@@ -9903,20 +9903,20 @@
       <c r="N224" s="28"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C18">
-    <sortCondition ref="A4:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D18">
+    <sortCondition descending="1" ref="D4:D18"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="H2:N3"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A209:G209"/>
+    <mergeCell ref="A210:F210"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A212:D212"/>
     <mergeCell ref="A223:F223"/>
     <mergeCell ref="A213:G213"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="H2:N3"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A209:G209"/>
-    <mergeCell ref="A210:F210"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="At Risk input warning" error="The percentage you entered should be between 20% and 50% for most project estimation purposes.  Change the Excel Data Validation for this cell if you need to use a value outside this range." promptTitle="At Risk Error Distribution" prompt="Enter an At Risk error distribution approximation between 20% and 50%, where 33% is a normal, decreasing error, and 50% is a uniform error." sqref="K15" xr:uid="{00000000-0002-0000-0000-000000000000}">
